--- a/biology/Médecine/Déficit_en_mévalonate_kinase/Déficit_en_mévalonate_kinase.xlsx
+++ b/biology/Médecine/Déficit_en_mévalonate_kinase/Déficit_en_mévalonate_kinase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_m%C3%A9valonate_kinase</t>
+          <t>Déficit_en_mévalonate_kinase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déficit en mévalonate kinase (ou MKD pour mevalonate kinase deficiency)[1], encore nommé acidurie mévalonique (mevalonic aciduria pour les anglophones[2]) est une maladie rare autosomale récessive (environ 200 cas répertoriés dans le monde) dite MVK.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en mévalonate kinase (ou MKD pour mevalonate kinase deficiency), encore nommé acidurie mévalonique (mevalonic aciduria pour les anglophones) est une maladie rare autosomale récessive (environ 200 cas répertoriés dans le monde) dite MVK.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_m%C3%A9valonate_kinase</t>
+          <t>Déficit_en_mévalonate_kinase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>La maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une maladie métabolique rare, caractérisée par une impossibilité de normalement biosynthétiser le cholestérol et les isoprénoïdes[3], en raison d'une déficience en une enzyme, la Mévalonate kinase, codée par le gène MVK.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une maladie métabolique rare, caractérisée par une impossibilité de normalement biosynthétiser le cholestérol et les isoprénoïdes, en raison d'une déficience en une enzyme, la Mévalonate kinase, codée par le gène MVK.
 			cycle du mévalonate
 			Transmission de type autosomale récessive
 			Acide mévalonique
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_m%C3%A9valonate_kinase</t>
+          <t>Déficit_en_mévalonate_kinase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce désordre métabolique et le syndrome dont il est responsable ont été pour la première fois médicalement décrit en 1985[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce désordre métabolique et le syndrome dont il est responsable ont été pour la première fois médicalement décrit en 1985.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_m%C3%A9valonate_kinase</t>
+          <t>Déficit_en_mévalonate_kinase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Présentation clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La maladie débute généralement dans l'enfance, avec des épisodes de 3 à 6 jours de fièvre, qui seront récurrents.
 La fréquence de retour des crises varie selon les individus.
-Cette fréquence est généralement plus élevée dans l'enfance (25 fois par an en moyenne) et diminue à l'âge adulte[1].
+Cette fréquence est généralement plus élevée dans l'enfance (25 fois par an en moyenne) et diminue à l'âge adulte.
 Une forme moins sévère est dite hyperimmunoglobulinemia D syndrome (HIDS)
 une forme plus dure est dite Acidurie mévalonique (mevalonic aciduria ou MVA).</t>
         </is>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_m%C3%A9valonate_kinase</t>
+          <t>Déficit_en_mévalonate_kinase</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont typiquement :
 des ganglions gonflés (lymphadénopathie) ;
@@ -622,7 +642,7 @@
 des maux de tête ;
 teint pâle (en raison d'une anémie) ;
 et parfois apparaissent des aphtes buccaux (ou vaginaux chez la femme).
-Quelques patients développent des malformations congénitales, des troubles mentaux ou un retard de développement mental marqué et/ou psychomoteur (ataxie, hypotonie, des problèmes d'yeux et des crises d'épilepsie[1]).
+Quelques patients développent des malformations congénitales, des troubles mentaux ou un retard de développement mental marqué et/ou psychomoteur (ataxie, hypotonie, des problèmes d'yeux et des crises d'épilepsie).
 Rarement, une amyloïdose entraîne une déficience rénale qui peut conduire à la mort.
 </t>
         </is>
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_m%C3%A9valonate_kinase</t>
+          <t>Déficit_en_mévalonate_kinase</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,9 +672,11 @@
           <t>Facteurs de déclenchement de crise</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les crises sont plus ou moins récurrentes, mais une vaccination, un acte chirurgical, une blessure ou un stress peuvent aussi les déclencher[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les crises sont plus ou moins récurrentes, mais une vaccination, un acte chirurgical, une blessure ou un stress peuvent aussi les déclencher.
 </t>
         </is>
       </c>
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9ficit_en_m%C3%A9valonate_kinase</t>
+          <t>Déficit_en_mévalonate_kinase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,12 +705,14 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les analyses d'urine révèlent une accumulation d'acide mévalonique (en raison du déficit en enzyme mévalonate kinase[5] (ATP:mevalonate 5-phosphotransferase; EC 2.7.1.36).
-Les taux sanguin d'immunoglobuline D (IgD) et d'immunoglobuline A (IgA) sont souvent anormalement élevés (pour des raisons mal comprises, et sans relations apparentes avec les symptômes)[1].
-Pour les patients atteint de la forme bénigne (HID), entre les crises la vie est normale, et l'espérance de vie ne semble pas diminuée[1].
-Ceux qui sont affectés de la forme dure (MVA), ont une qualité de vie très dégradée et une morphologie anormale (tête plus petite et allongée)[1]. Hormis pour les cas les plus graves, l'espérance de vie semble normale[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses d'urine révèlent une accumulation d'acide mévalonique (en raison du déficit en enzyme mévalonate kinase (ATP:mevalonate 5-phosphotransferase; EC 2.7.1.36).
+Les taux sanguin d'immunoglobuline D (IgD) et d'immunoglobuline A (IgA) sont souvent anormalement élevés (pour des raisons mal comprises, et sans relations apparentes avec les symptômes).
+Pour les patients atteint de la forme bénigne (HID), entre les crises la vie est normale, et l'espérance de vie ne semble pas diminuée.
+Ceux qui sont affectés de la forme dure (MVA), ont une qualité de vie très dégradée et une morphologie anormale (tête plus petite et allongée). Hormis pour les cas les plus graves, l'espérance de vie semble normale.
 </t>
         </is>
       </c>
